--- a/medicine/Enfance/Fantômette_et_le_Secret_du_désert/Fantômette_et_le_Secret_du_désert.xlsx
+++ b/medicine/Enfance/Fantômette_et_le_Secret_du_désert/Fantômette_et_le_Secret_du_désert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_le_Secret_du_d%C3%A9sert</t>
+          <t>Fantômette_et_le_Secret_du_désert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette et le Secret du désert est le 22e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_le_Secret_du_d%C3%A9sert</t>
+          <t>Fantômette_et_le_Secret_du_désert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette et le Secret du désert a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_le_Secret_du_d%C3%A9sert</t>
+          <t>Fantômette_et_le_Secret_du_désert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Françoise Dupont / Fantômette : héroïne du roman.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_le_Secret_du_d%C3%A9sert</t>
+          <t>Fantômette_et_le_Secret_du_désert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,12 +602,14 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1973 en langue française.
 Mise en place de l'intrigue
 Chapitres 1 à 3.
-MM. Jean Lafrite (directeur de la Banque Lafrite), Thomas de Cocagne (directeur régional de la société Colonel Motors) et Guy Gnol (directeur de la compagnie d'assurance La Radine) confient une mission à Fantômette : se rendre en Zizanie, un pays africain ou proche-oriental francophone[3] dans lequel sévit depuis trois ans Taleb Saïd, un bandit de grand chemin qui, avec sa bande de voleurs, pille les banques et les entreprises. Fantômette accepte la mission. Elle se rend en Zizanie avec ses deux amies Boulotte et Ficelle. Cette dernière se prend pour une grande poétesse et rédige des poèmes mièvres et ridicules.
+MM. Jean Lafrite (directeur de la Banque Lafrite), Thomas de Cocagne (directeur régional de la société Colonel Motors) et Guy Gnol (directeur de la compagnie d'assurance La Radine) confient une mission à Fantômette : se rendre en Zizanie, un pays africain ou proche-oriental francophone dans lequel sévit depuis trois ans Taleb Saïd, un bandit de grand chemin qui, avec sa bande de voleurs, pille les banques et les entreprises. Fantômette accepte la mission. Elle se rend en Zizanie avec ses deux amies Boulotte et Ficelle. Cette dernière se prend pour une grande poétesse et rédige des poèmes mièvres et ridicules.
 À peine arrivées à Ezbrouff, la capitale de la Zizanie, les jeunes filles sont accueillies par Césarin Broutefigues, leur contact local. Sur le trajet les amenant dans leur hôtel en centre ville, une voiture s'approche de celle dans laquelle elles voyagent et elles sont mitraillées. Heureusement aucune balle n'atteint les passagers et passagères de la voiture.
 Première expédition dans le désert
 Chapitres 4 à 8.
@@ -607,7 +625,7 @@
 La jeune aventurière ne compte pas rester des décennies cloitrée dans cette ville éloignée de tout. Elle manigance un plan : elle sollicite un pouf en cuir ; elle le découd ; s'y cache à l'intérieur ; attend qu'on le remette hors de sa chambre. Puis Fantômette découd les coutures, vole un cheval, se dirige vers l’entrée de la grotte et quitte Serra. Elle erre dans le désert, poursuivie par les hommes de Taleb Saïd. Affaiblie et déshydratée, Fantômette croit sa dernière heure venue.
 Dénouement et révélations finales
 Chapitres 17 et 18  ; « chapitre final »
-Fantômette est sauvée in extremis par Paul et Pierre Quiroul[4], deux géographes français qui faisaient des relevés photographiques par avion. Ils la ramènent à Ezbrouff, la capitale de la Zizanie. Durant le trajet elle leur parle de Serra et de sa localisation. Elle indique son emplacement sur une carte géographique de la région. La ville serait érigée dans le « cratère du Chameau ». Ils promettent d'aller y faire une reconnaissance aérienne prochainement.
+Fantômette est sauvée in extremis par Paul et Pierre Quiroul, deux géographes français qui faisaient des relevés photographiques par avion. Ils la ramènent à Ezbrouff, la capitale de la Zizanie. Durant le trajet elle leur parle de Serra et de sa localisation. Elle indique son emplacement sur une carte géographique de la région. La ville serait érigée dans le « cratère du Chameau ». Ils promettent d'aller y faire une reconnaissance aérienne prochainement.
 Mais quelques jours après son retour dans son hôtel, elle a la surprise d'avoir la visite de Taleb Saïd. L'homme sait que la ville secrète va être révélée au monde entier. Alors il a pris les devants : il va révéler son existence très rapidement, d'autant plus qu'on vient d'y trouver un champ pétrolifère à proximité. L'exploitation de ce gisement va lui permettre d'être autonome financièrement et même de rembourser les banques et les entreprises qu'il a volées.
 </t>
         </is>
